--- a/Mifos Automation Excels/Client/2558-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-ADD-VAR-INST-PERIODIC-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2558-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-ADD-VAR-INST-PERIODIC-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Cash(1)</t>
   </si>
   <si>
-    <t>L14</t>
-  </si>
-  <si>
     <t>Interest Receivable(3)</t>
   </si>
   <si>
@@ -183,37 +180,43 @@
     <t>Income from interest(7)</t>
   </si>
   <si>
+    <t>$ 846.23</t>
+  </si>
+  <si>
+    <t>$ 42.26</t>
+  </si>
+  <si>
+    <t>$ 888.49</t>
+  </si>
+  <si>
+    <t>L122</t>
+  </si>
+  <si>
+    <t>L124</t>
+  </si>
+  <si>
+    <t>L125</t>
+  </si>
+  <si>
+    <t>L126</t>
+  </si>
+  <si>
+    <t>L129</t>
+  </si>
+  <si>
+    <t>$ 50</t>
+  </si>
+  <si>
     <t>$ 774.15</t>
   </si>
   <si>
-    <t>L42</t>
-  </si>
-  <si>
-    <t>L43</t>
-  </si>
-  <si>
-    <t>L44</t>
-  </si>
-  <si>
-    <t>L47</t>
-  </si>
-  <si>
-    <t>$ 50</t>
-  </si>
-  <si>
     <t>$ 824.15</t>
   </si>
   <si>
-    <t>$ 888.49</t>
-  </si>
-  <si>
     <t>$ 21.13</t>
   </si>
   <si>
-    <t>$ 867.36</t>
-  </si>
-  <si>
-    <t>$ 83.58</t>
+    <t>$ 83.8</t>
   </si>
 </sst>
 </file>
@@ -314,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -341,9 +344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -354,20 +354,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,7 +702,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A8" sqref="A8:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +824,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,6 +922,7 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -970,6 +964,9 @@
         <v>0</v>
       </c>
       <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
@@ -1013,6 +1010,9 @@
         <v>0</v>
       </c>
       <c r="N4" s="6">
+        <v>867.36</v>
+      </c>
+      <c r="O4" s="6">
         <v>867.36</v>
       </c>
       <c r="P4" s="6">
@@ -1044,6 +1044,7 @@
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1085,6 +1086,9 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
       <c r="P6" s="6">
         <v>785.08</v>
       </c>
@@ -1128,6 +1132,9 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
       <c r="P7" s="6">
         <v>806.21</v>
       </c>
@@ -1171,6 +1178,9 @@
       <c r="N8" s="6">
         <v>0</v>
       </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
       <c r="P8" s="6">
         <v>806.21</v>
       </c>
@@ -1214,6 +1224,9 @@
       <c r="N9" s="6">
         <v>0</v>
       </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
       <c r="P9" s="6">
         <v>806.21</v>
       </c>
@@ -1257,6 +1270,9 @@
       <c r="N10" s="6">
         <v>0</v>
       </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
       <c r="P10" s="6">
         <v>806.21</v>
       </c>
@@ -1300,6 +1316,9 @@
       <c r="N11" s="6">
         <v>0</v>
       </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
       <c r="P11" s="6">
         <v>806.21</v>
       </c>
@@ -1343,6 +1362,9 @@
       <c r="N12" s="6">
         <v>0</v>
       </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
       <c r="P12" s="6">
         <v>806.21</v>
       </c>
@@ -1386,6 +1408,9 @@
       <c r="N13" s="6">
         <v>0</v>
       </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
       <c r="P13" s="6">
         <v>806.21</v>
       </c>
@@ -1429,6 +1454,9 @@
       <c r="N14" s="6">
         <v>0</v>
       </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
       <c r="P14" s="6">
         <v>806.21</v>
       </c>
@@ -1472,6 +1500,9 @@
       <c r="N15" s="6">
         <v>0</v>
       </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
       <c r="P15" s="6">
         <v>806.21</v>
       </c>
@@ -1513,6 +1544,9 @@
         <v>0</v>
       </c>
       <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
         <v>0</v>
       </c>
       <c r="P16" s="6">
@@ -1529,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,65 +1615,65 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>4742</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="20">
+        <v>3565</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="7">
         <v>42095</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="20">
         <v>83.58</v>
       </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="F2" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20">
         <v>83.58</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="H2" s="20">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20">
+        <v>0</v>
+      </c>
+      <c r="J2" s="20">
         <v>0</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>4741</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="20">
+        <v>3564</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="7">
         <v>42064</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="20">
         <v>888.49</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="20">
         <v>867.36</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="20">
         <v>21.13</v>
       </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="H3" s="20">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20">
         <v>0</v>
       </c>
       <c r="J3" s="9">
@@ -1649,65 +1683,65 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>4728</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="20">
+        <v>3562</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="7">
         <v>42064</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="20">
         <v>21.13</v>
       </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="20">
+        <v>0</v>
+      </c>
+      <c r="G4" s="20">
         <v>21.13</v>
       </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="H4" s="20">
+        <v>0</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20">
         <v>0</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4710</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="20">
+        <v>3519</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="7">
         <v>42064</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="8">
         <v>5000</v>
       </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20">
         <v>0</v>
       </c>
       <c r="J5" s="9">
@@ -1717,99 +1751,99 @@
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>4727</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="20">
+        <v>3561</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>42050</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="20">
         <v>21.13</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
         <v>21.13</v>
       </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20">
         <v>0</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>4726</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="20">
+        <v>3560</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="7">
         <v>42036</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="20">
         <v>50</v>
       </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
         <v>50</v>
       </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="H7" s="20">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
         <v>0</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>4703</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="20">
+        <v>3518</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="7">
         <v>42036</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="20">
         <v>824.15</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="20">
         <v>774.15</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="20">
         <v>50</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
         <v>0</v>
       </c>
       <c r="J8" s="9">
@@ -1819,31 +1853,31 @@
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>4700</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="20">
+        <v>3517</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="7">
         <v>42005</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="8">
         <v>5000</v>
       </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
         <v>0</v>
       </c>
       <c r="J9" s="8">
@@ -1967,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,96 +2049,85 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>31</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="6">
+        <v>241</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="14">
-        <v>42050</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="7">
+        <v>42036</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>242</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>32</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>243</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14">
-        <v>42050</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="C4" s="7">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>33</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="14">
-        <v>42050</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2116,7 +2139,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,7 +2195,7 @@
         <v>42064</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>40</v>
@@ -2199,7 +2222,7 @@
         <v>42064</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>40</v>
@@ -2222,27 +2245,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2271,7 +2294,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>100</v>
       </c>
@@ -2282,7 +2305,7 @@
         <v>42064</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>40</v>
@@ -2293,12 +2316,12 @@
       <c r="G2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>101</v>
       </c>
@@ -2309,7 +2332,7 @@
         <v>42064</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>40</v>
@@ -2318,14 +2341,14 @@
         <v>41</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>102</v>
       </c>
@@ -2336,7 +2359,7 @@
         <v>42064</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>40</v>
@@ -2347,29 +2370,10 @@
       <c r="G4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="9"/>
+      <c r="H4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2380,55 +2384,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="7.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -2437,25 +2441,25 @@
         <v>42036</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="20"/>
+        <v>45</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>
@@ -2464,29 +2468,29 @@
         <v>42036</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="H3" s="20"/>
-      <c r="I3" s="20" t="s">
-        <v>58</v>
+      <c r="I3" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H4" s="21"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>89</v>
+        <v>248</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
@@ -2495,25 +2499,25 @@
         <v>42050</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="21"/>
+        <v>63</v>
+      </c>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>90</v>
+        <v>249</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>27</v>
@@ -2522,29 +2526,29 @@
         <v>42050</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>27</v>
@@ -2553,25 +2557,25 @@
         <v>42064</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>27</v>
@@ -2580,29 +2584,29 @@
         <v>42064</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20" t="s">
-        <v>61</v>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H10" s="21"/>
-      <c r="I10" s="20"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>100</v>
+        <v>259</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>27</v>
@@ -2611,7 +2615,7 @@
         <v>42095</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>40</v>
@@ -2620,16 +2624,16 @@
         <v>41</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="24"/>
+        <v>45</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>27</v>
@@ -2638,20 +2642,20 @@
         <v>42095</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25" t="s">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/2558-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-ADD-VAR-INST-PERIODIC-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2558-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-ADD-VAR-INST-PERIODIC-Makerepayment2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -222,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,6 +377,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -419,7 +427,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,9 +460,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,6 +512,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -821,10 +863,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,12 +884,13 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -887,17 +930,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -921,11 +965,12 @@
         <v>0</v>
       </c>
       <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="N2" s="20"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -963,17 +1008,18 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
+      <c r="N3" s="20"/>
       <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1009,17 +1055,18 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>867.36</v>
-      </c>
+      <c r="N4" s="20"/>
       <c r="O4" s="6">
         <v>867.36</v>
       </c>
       <c r="P4" s="6">
+        <v>867.36</v>
+      </c>
+      <c r="Q4" s="6">
         <v>21.13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7">
@@ -1043,11 +1090,12 @@
         <v>0</v>
       </c>
       <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="N5" s="20"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1083,17 +1131,18 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
+      <c r="N6" s="20"/>
       <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>785.08</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1129,17 +1178,18 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
+      <c r="N7" s="20"/>
       <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>806.21</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1175,17 +1225,18 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
+      <c r="N8" s="20"/>
       <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>806.21</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1221,17 +1272,18 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
+      <c r="N9" s="20"/>
       <c r="O9" s="6">
         <v>0</v>
       </c>
       <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>806.21</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1267,17 +1319,18 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
+      <c r="N10" s="20"/>
       <c r="O10" s="6">
         <v>0</v>
       </c>
       <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>806.21</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1313,17 +1366,18 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
+      <c r="N11" s="20"/>
       <c r="O11" s="6">
         <v>0</v>
       </c>
       <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>806.21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1359,17 +1413,18 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
+      <c r="N12" s="20"/>
       <c r="O12" s="6">
         <v>0</v>
       </c>
       <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>806.21</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1405,17 +1460,18 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
+      <c r="N13" s="20"/>
       <c r="O13" s="6">
         <v>0</v>
       </c>
       <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>806.21</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1451,17 +1507,18 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
+      <c r="N14" s="20"/>
       <c r="O14" s="6">
         <v>0</v>
       </c>
       <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>806.21</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1497,17 +1554,18 @@
       <c r="M15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
+      <c r="N15" s="20"/>
       <c r="O15" s="6">
         <v>0</v>
       </c>
       <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
         <v>806.21</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -1543,13 +1601,14 @@
       <c r="M16" s="6">
         <v>0</v>
       </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
+      <c r="N16" s="20"/>
       <c r="O16" s="6">
         <v>0</v>
       </c>
       <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
         <v>746.06</v>
       </c>
     </row>
@@ -1563,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
